--- a/prog/data_processing/result/describe_predictors/4_emissions_drop.xlsx
+++ b/prog/data_processing/result/describe_predictors/4_emissions_drop.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\describe_predictors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,8 +291,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,24 +344,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,9 +416,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +450,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,9 +485,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,755 +661,765 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:E44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3">
         <v>195030</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3">
         <v>234900</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3">
         <v>236396</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>108124</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3">
         <v>155538</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3">
         <v>227405</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>70250</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3">
         <v>217748</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3">
         <v>221099</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>63143</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>7</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>11</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>80329</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>68942</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>134681</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3">
         <v>173674</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3">
         <v>145639</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3">
         <v>132363</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="3">
         <v>168714</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="3">
         <v>173510</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3">
         <v>135529</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>131648</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="3">
         <v>136244</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3">
         <v>153215</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="3">
         <v>20133</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>117790</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>2</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>89220</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>22</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="3">
         <v>194937</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
+      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="3">
         <v>12330</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>2</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>2</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="3">
         <v>0</v>
       </c>
     </row>

--- a/prog/data_processing/result/describe_predictors/4_emissions_drop.xlsx
+++ b/prog/data_processing/result/describe_predictors/4_emissions_drop.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\describe_predictors\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -291,8 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,41 +339,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,9 +394,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,10 +428,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,10 +462,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,765 +637,755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:E44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2">
         <v>195030</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3">
         <v>234900</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
         <v>236396</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>108124</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6">
         <v>155538</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7">
         <v>227405</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>70250</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12">
         <v>217748</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13">
         <v>221099</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>63143</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>7</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>11</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>80329</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>68942</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>134681</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23">
         <v>173674</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24">
         <v>145639</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25">
         <v>132363</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26">
         <v>168714</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27">
         <v>173510</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28">
         <v>135529</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>131648</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30">
         <v>136244</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31">
         <v>153215</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32">
         <v>20133</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>117790</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>89220</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>22</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37">
         <v>194937</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41">
         <v>12330</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
     </row>
